--- a/编码进度表—周青山 组.xlsx
+++ b/编码进度表—周青山 组.xlsx
@@ -715,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,6 +759,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,11 +780,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,8 +789,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1159,7 +1162,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1176,16 +1179,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1214,10 +1217,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
@@ -1230,8 +1233,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -1241,11 +1244,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -1255,11 +1258,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -1269,11 +1272,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -1283,11 +1286,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -1300,8 +1303,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -1316,8 +1319,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -1330,8 +1333,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -1344,8 +1347,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -1358,8 +1361,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -1372,30 +1375,42 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>43662</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="5">
+        <v>43662</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>43662</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
@@ -1438,16 +1453,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1476,10 +1491,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
@@ -1492,8 +1507,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -1503,11 +1518,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -1517,11 +1532,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -1531,11 +1546,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -1545,11 +1560,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -1562,8 +1577,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -1578,8 +1593,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -1592,8 +1607,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -1606,8 +1621,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -1620,8 +1635,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -1634,8 +1649,8 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
@@ -1648,8 +1663,8 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">
@@ -1680,7 +1695,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1697,16 +1712,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1735,10 +1750,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
@@ -1751,8 +1766,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -1762,11 +1777,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -1776,11 +1791,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -1790,11 +1805,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -1804,11 +1819,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -1821,8 +1836,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -1837,8 +1852,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -1851,8 +1866,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -1865,8 +1880,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -1879,8 +1894,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -1893,30 +1908,38 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>43662</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="5">
+        <v>43662</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>43662</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
@@ -1939,7 +1962,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1956,16 +1979,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1994,24 +2017,30 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>43663</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="5">
+        <v>43663</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43663</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.7</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -2021,11 +2050,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -2035,11 +2064,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -2049,11 +2078,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -2063,11 +2092,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -2080,8 +2109,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -2096,8 +2125,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -2110,8 +2139,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -2124,8 +2153,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -2138,8 +2167,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -2152,30 +2181,42 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>43662</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="5">
+        <v>43662</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>43662</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
@@ -2198,7 +2239,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2215,16 +2256,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2253,24 +2294,30 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>43663</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="5">
+        <v>43663</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43663</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.2</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -2280,11 +2327,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -2294,11 +2341,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -2308,11 +2355,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -2322,11 +2369,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -2339,8 +2386,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -2355,8 +2402,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -2369,8 +2416,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -2383,8 +2430,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -2397,8 +2444,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -2411,30 +2458,42 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>43662</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="5">
+        <v>43662</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>43662</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
@@ -2457,7 +2516,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2474,16 +2533,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2512,10 +2571,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
@@ -2528,8 +2587,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -2539,11 +2598,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -2553,11 +2612,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -2567,11 +2626,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -2581,11 +2640,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -2598,8 +2657,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -2614,8 +2673,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -2628,8 +2687,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -2642,8 +2701,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -2656,8 +2715,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -2670,30 +2729,36 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>43662</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="5">
+        <v>43662</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>43662</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.8</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
@@ -2716,7 +2781,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2733,16 +2798,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2771,10 +2836,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
@@ -2787,8 +2852,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -2798,11 +2863,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -2812,11 +2877,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -2826,11 +2891,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -2840,11 +2905,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -2857,8 +2922,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -2873,8 +2938,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -2887,8 +2952,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -2901,8 +2966,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -2915,8 +2980,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -2929,30 +2994,36 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>43662</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="5">
+        <v>43662</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>43662</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="5">
+        <v>43662</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0.3</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
@@ -2992,16 +3063,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3030,10 +3101,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
@@ -3046,8 +3117,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -3057,11 +3128,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -3071,11 +3142,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -3085,11 +3156,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -3099,11 +3170,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -3116,8 +3187,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -3132,8 +3203,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -3146,8 +3217,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -3160,8 +3231,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -3174,8 +3245,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -3188,8 +3259,8 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
@@ -3202,8 +3273,8 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">
@@ -3251,16 +3322,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3289,10 +3360,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
@@ -3305,8 +3376,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -3316,11 +3387,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -3330,11 +3401,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -3344,11 +3415,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -3358,11 +3429,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -3375,8 +3446,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -3391,8 +3462,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -3405,8 +3476,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -3419,8 +3490,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -3433,8 +3504,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -3447,8 +3518,8 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
@@ -3461,8 +3532,8 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">
@@ -3510,16 +3581,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3548,10 +3619,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5">
@@ -3564,8 +3635,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
@@ -3575,11 +3646,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
@@ -3589,11 +3660,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -3603,11 +3674,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5">
@@ -3617,11 +3688,11 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5">
@@ -3634,8 +3705,8 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -3650,8 +3721,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="5">
@@ -3664,8 +3735,8 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -3678,8 +3749,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5">
@@ -3692,8 +3763,8 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5">
@@ -3706,8 +3777,8 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5">
@@ -3720,8 +3791,8 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="5">

--- a/编码进度表—周青山 组.xlsx
+++ b/编码进度表—周青山 组.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\com.hgkj.myshcool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A01CB-7173-4690-943E-FACF2E940C4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周青山 " sheetId="11" r:id="rId1"/>
@@ -107,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -765,6 +771,9 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,42 +798,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="4"/>
-    <cellStyle name="40% - 着色 4" xfId="7"/>
-    <cellStyle name="40% - 着色 5" xfId="9"/>
-    <cellStyle name="60% - 着色 2" xfId="2"/>
-    <cellStyle name="标题 1 2" xfId="3"/>
-    <cellStyle name="标题 2 2" xfId="11"/>
-    <cellStyle name="标题 3 2" xfId="12"/>
-    <cellStyle name="标题 4 2" xfId="13"/>
-    <cellStyle name="标题 5" xfId="14"/>
-    <cellStyle name="差 2" xfId="15"/>
+    <cellStyle name="20% - 着色 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="40% - 着色 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="40% - 着色 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="60% - 着色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="标题 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="标题 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="标题 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="标题 4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="标题 5" xfId="14" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="差 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="16"/>
-    <cellStyle name="好 2" xfId="17"/>
-    <cellStyle name="汇总 2" xfId="18"/>
-    <cellStyle name="计算 2" xfId="1"/>
-    <cellStyle name="检查单元格 2" xfId="19"/>
-    <cellStyle name="解释性文本 2" xfId="20"/>
-    <cellStyle name="警告文本 2" xfId="21"/>
-    <cellStyle name="链接单元格 2" xfId="22"/>
-    <cellStyle name="适中 2" xfId="10"/>
-    <cellStyle name="输出 2" xfId="6"/>
-    <cellStyle name="输入 2" xfId="23"/>
-    <cellStyle name="着色 1" xfId="5"/>
-    <cellStyle name="着色 5" xfId="8"/>
-    <cellStyle name="注释 2" xfId="24"/>
+    <cellStyle name="常规 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="好 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="汇总 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="适中 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="输出 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="着色 1" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="着色 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1158,10 +1167,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1179,16 +1188,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1217,7 +1226,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1233,7 +1242,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
@@ -1244,10 +1253,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1258,10 +1267,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
@@ -1272,10 +1281,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -1286,10 +1295,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1312,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1319,7 +1328,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1342,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -1347,7 +1356,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -1361,7 +1370,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -1375,7 +1384,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -1388,14 +1397,14 @@
       <c r="E14" s="5">
         <v>43662</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="17">
         <v>1</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1408,7 +1417,7 @@
       <c r="E15" s="5">
         <v>43662</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" s="12"/>
@@ -1432,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1453,16 +1462,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1491,7 +1500,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1507,7 +1516,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
@@ -1518,10 +1527,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1532,10 +1541,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
@@ -1546,10 +1555,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -1560,10 +1569,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -1577,7 +1586,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1593,7 +1602,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1607,7 +1616,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1630,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -1635,7 +1644,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -1649,7 +1658,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -1663,7 +1672,7 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1691,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1712,16 +1721,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1750,7 +1759,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1766,7 +1775,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
@@ -1777,10 +1786,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -1791,10 +1800,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
@@ -1805,10 +1814,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -1819,10 +1828,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -1836,7 +1845,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -1852,7 +1861,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -1866,7 +1875,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -1880,7 +1889,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -1894,7 +1903,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -1908,7 +1917,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -1924,7 +1933,7 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1937,7 +1946,7 @@
       <c r="E15" s="5">
         <v>43662</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" s="12"/>
@@ -1958,11 +1967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1979,16 +1988,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2017,7 +2026,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2032,56 +2041,72 @@
       <c r="E3" s="5">
         <v>43663</v>
       </c>
-      <c r="F3" s="6">
-        <v>0.7</v>
+      <c r="F3" s="17">
+        <v>1</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>43663</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="5">
+        <v>43663</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43663</v>
+      </c>
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>43664</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="5">
+        <v>43663</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43663</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
       <c r="G5" s="14"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
         <v>43664</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>43663</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.3</v>
+      </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -2092,10 +2117,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -2109,7 +2134,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2150,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -2139,7 +2164,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -2153,7 +2178,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -2167,7 +2192,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -2181,7 +2206,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2194,14 +2219,14 @@
       <c r="E14" s="5">
         <v>43662</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="17">
         <v>1</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
@@ -2214,7 +2239,7 @@
       <c r="E15" s="5">
         <v>43662</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" s="12"/>
@@ -2235,7 +2260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2256,16 +2281,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2294,7 +2319,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2316,7 +2341,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
@@ -2327,10 +2352,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2341,10 +2366,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
@@ -2355,10 +2380,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -2369,10 +2394,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -2386,7 +2411,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -2402,7 +2427,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -2416,7 +2441,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -2430,7 +2455,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -2444,7 +2469,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -2458,7 +2483,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2471,14 +2496,14 @@
       <c r="E14" s="5">
         <v>43662</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="17">
         <v>1</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
@@ -2491,7 +2516,7 @@
       <c r="E15" s="5">
         <v>43662</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="17">
         <v>1</v>
       </c>
       <c r="G15" s="12"/>
@@ -2512,7 +2537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2533,16 +2558,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2571,7 +2596,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2587,7 +2612,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
@@ -2598,10 +2623,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2612,10 +2637,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
@@ -2626,10 +2651,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -2640,10 +2665,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -2657,7 +2682,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2698,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -2687,7 +2712,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -2701,7 +2726,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -2715,7 +2740,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -2729,7 +2754,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -2745,7 +2770,7 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
@@ -2756,7 +2781,7 @@
       <c r="E15" s="5">
         <v>43662</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="17">
         <v>0.8</v>
       </c>
       <c r="G15" s="12"/>
@@ -2777,7 +2802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2798,16 +2823,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -2836,7 +2861,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2852,7 +2877,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
@@ -2863,10 +2888,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -2877,10 +2902,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
@@ -2891,10 +2916,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -2905,10 +2930,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -2922,7 +2947,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -2938,7 +2963,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -2952,7 +2977,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -2966,7 +2991,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -2980,7 +3005,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -2994,7 +3019,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -3010,7 +3035,7 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
@@ -3021,7 +3046,7 @@
       <c r="E15" s="5">
         <v>43662</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="17">
         <v>0.3</v>
       </c>
       <c r="G15" s="12"/>
@@ -3042,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3063,16 +3088,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3101,7 +3126,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3117,7 +3142,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
@@ -3128,10 +3153,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -3142,10 +3167,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
@@ -3156,10 +3181,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -3170,10 +3195,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -3187,7 +3212,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -3203,7 +3228,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -3217,7 +3242,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -3231,7 +3256,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -3245,7 +3270,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -3259,7 +3284,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -3273,7 +3298,7 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
@@ -3301,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3322,16 +3347,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3360,7 +3385,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3376,7 +3401,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
@@ -3387,10 +3412,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -3401,10 +3426,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
@@ -3415,10 +3440,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -3429,10 +3454,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -3446,7 +3471,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3487,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -3476,7 +3501,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -3490,7 +3515,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -3504,7 +3529,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -3518,7 +3543,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -3532,7 +3557,7 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
@@ -3560,7 +3585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3581,16 +3606,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3619,7 +3644,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3635,7 +3660,7 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
@@ -3646,10 +3671,10 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
@@ -3660,10 +3685,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
@@ -3674,10 +3699,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
@@ -3688,10 +3713,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
@@ -3705,7 +3730,7 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -3721,7 +3746,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
       </c>
@@ -3735,7 +3760,7 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
@@ -3749,7 +3774,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
@@ -3763,7 +3788,7 @@
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
@@ -3777,7 +3802,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
@@ -3791,7 +3816,7 @@
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>

--- a/编码进度表—周青山 组.xlsx
+++ b/编码进度表—周青山 组.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\com.hgkj.myshcool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A01CB-7173-4690-943E-FACF2E940C4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C2CDF0-B5FC-4816-851C-EF6CB9B2AEA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="26">
   <si>
     <t>整体模块</t>
   </si>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>进度控制表-我的校园我的家的设计与实现</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加可以，查看所有时级联没有出来</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -797,6 +801,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1971,7 +1981,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2095,12 +2105,14 @@
       <c r="C6" s="5">
         <v>43664</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>43664</v>
+      </c>
       <c r="E6" s="5">
         <v>43663</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.3</v>
+      <c r="F6" s="17">
+        <v>1</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="22"/>
@@ -2113,9 +2125,15 @@
       <c r="C7" s="5">
         <v>43665</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="D7" s="5">
+        <v>43664</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43664</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="22"/>
     </row>
@@ -2127,9 +2145,15 @@
       <c r="C8" s="5">
         <v>43665</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="5">
+        <v>43664</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43664</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="10"/>
     </row>
@@ -2141,15 +2165,19 @@
       <c r="C9" s="5">
         <v>43665</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="5">
+        <v>43665</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43665</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
       <c r="G9" s="14"/>
-      <c r="H9" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="24"/>
       <c r="B10" s="16" t="s">
         <v>16</v>
@@ -2158,10 +2186,16 @@
         <v>43666</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="10"/>
+      <c r="E10" s="5">
+        <v>43666</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24"/>
@@ -2171,9 +2205,15 @@
       <c r="C11" s="5">
         <v>43666</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="D11" s="5">
+        <v>43666</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43666</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="11"/>
     </row>
@@ -2185,9 +2225,15 @@
       <c r="C12" s="5">
         <v>43666</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="D12" s="5">
+        <v>43666</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43666</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
